--- a/map.xlsx
+++ b/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f80b97910544f7d3/Documents/Tufts/Spring 2021/COMP 152 - VA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{42378E62-D68F-4829-8F0C-F82CB24475CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2713AD0-7222-4D80-8FB5-DEDE98FC0664}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{42378E62-D68F-4829-8F0C-F82CB24475CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{94544CDE-9377-43C0-9B8B-481BCAFC5174}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10540" xr2:uid="{1E66A39F-BCA3-4E55-9A0C-A4C73F78DB48}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>General-gate 0</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Gate 8</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>xcoord</t>
+  </si>
+  <si>
+    <t>ycoord</t>
   </si>
 </sst>
 </file>
@@ -508,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E65AC5-68AB-4B9D-BCA4-411BB55020B5}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,55 +529,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>110</v>
-      </c>
-      <c r="C1">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -576,386 +585,397 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="C16">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C20">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="C22">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C25">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C26">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="C27">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C29">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C30">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C31">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="C32">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="C33">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C34">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C35">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C36">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C37">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C38">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C39">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>140</v>
+      </c>
+      <c r="C40">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>138</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>184</v>
       </c>
     </row>
